--- a/database/testcase.xlsx
+++ b/database/testcase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuaibao/Desktop/api_dome/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuaibao/native_code/api_deme/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C6C266-48DA-CC44-B301-836041C26782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227FF66-2CE8-104F-BD42-AF0FBEE47AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="860" windowWidth="27440" windowHeight="15560" xr2:uid="{CA3FB384-CADC-BE4E-BCFA-02D801E7CE46}"/>
+    <workbookView xWindow="1360" yWindow="860" windowWidth="27440" windowHeight="15560" xr2:uid="{CA3FB384-CADC-BE4E-BCFA-02D801E7CE46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>用例编号</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{'code': 1000, 'msg': 'success', 'value': 1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,6 +122,18 @@
   </si>
   <si>
     <t>test_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'a': 2, 'b':'^value'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 1000, 'msg': 'success', 'value': -1}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED18300-0AD6-B94A-90A5-BAA1069E06E6}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -561,20 +569,21 @@
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.83203125" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="8" max="8" width="34.5" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="43" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="G1" t="s">
-        <v>23</v>
+    <row r="1" spans="1:12">
+      <c r="H1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="45" customHeight="1">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,26 +599,29 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -622,26 +634,29 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>200</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
+      <c r="L3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -654,26 +669,25 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
         <v>1000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>200</v>
       </c>
-      <c r="K4" t="s">
-        <v>20</v>
+      <c r="L4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/database/testcase.xlsx
+++ b/database/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuaibao/native_code/api_deme/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9227FF66-2CE8-104F-BD42-AF0FBEE47AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A99A9D-68E5-D34B-8BDC-1B3A2DFB6B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="860" windowWidth="27440" windowHeight="15560" xr2:uid="{CA3FB384-CADC-BE4E-BCFA-02D801E7CE46}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/database/testcase.xlsx
+++ b/database/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuaibao/native_code/api_deme/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A99A9D-68E5-D34B-8BDC-1B3A2DFB6B03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155FE305-2E31-664B-AC13-220D44EBED44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="860" windowWidth="27440" windowHeight="15560" xr2:uid="{CA3FB384-CADC-BE4E-BCFA-02D801E7CE46}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>用例编号</t>
   </si>
@@ -125,15 +125,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> {'a': 2, 'b':'^value'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>前置条件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{'code': 1000, 'msg': 'success', 'value': -1}</t>
+    <t xml:space="preserve"> {'a': '^code', 'b':'^value'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 1000, 'msg': 'success', 'value': 1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 1000, 'msg': 'success', 'value': -3}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED18300-0AD6-B94A-90A5-BAA1069E06E6}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -571,7 +575,7 @@
     <col min="5" max="5" width="6.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" customWidth="1"/>
     <col min="9" max="9" width="43" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="13.83203125" customWidth="1"/>
@@ -600,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>5</v>
@@ -673,7 +677,7 @@
         <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -685,6 +689,38 @@
         <v>200</v>
       </c>
       <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>1000</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -693,6 +729,7 @@
   <hyperlinks>
     <hyperlink ref="C4:C5" r:id="rId1" display="http://127.0.0.1:8000/add" xr:uid="{D0AFC779-D529-B246-9427-C5D263F3A41F}"/>
     <hyperlink ref="C3" r:id="rId2" display="http://127.0.0.1:8000/add" xr:uid="{86C6876E-4E52-184C-AC1C-166D29F69E86}"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://127.0.0.1:8000/add" xr:uid="{7A5F2842-46D0-F44F-A502-EA9DD0D54B92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/testcase.xlsx
+++ b/database/testcase.xlsx
@@ -1,192 +1,336 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuaibao/native_code/api_deme/database/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155FE305-2E31-664B-AC13-220D44EBED44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="860" windowWidth="27440" windowHeight="15560" xr2:uid="{CA3FB384-CADC-BE4E-BCFA-02D801E7CE46}"/>
+    <workbookView windowWidth="28000" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+  <si>
+    <t>test_1</t>
+  </si>
   <si>
     <t>用例编号</t>
   </si>
   <si>
     <t>请求类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用例标题</t>
   </si>
   <si>
+    <t>参数名字</t>
+  </si>
+  <si>
+    <t>参数值</t>
+  </si>
+  <si>
     <t>请求头</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
   </si>
   <si>
     <t>测试url</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+  </si>
+  <si>
+    <t>匹配规则</t>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>响应数据状态/json返回数据的code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>状态码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>响应状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>相加接口</t>
+  </si>
+  <si>
+    <t>参数正常-成功</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>/add</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'a': 2, 'b': 1}</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>a,b</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'a': 212312, 'b': 13213123}</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>['value'][1]['num']</t>
+  </si>
+  <si>
+    <t>{'code': 0, 'msg': 'ok', 'value': 3}</t>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数正常-成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相加接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>相减接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {'a': 2, 'b': 1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': 0, 'msg': 'ok', 'value': 3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/less</t>
+  </si>
+  <si>
+    <t>heardes</t>
+  </si>
+  <si>
+    <t>['value']['userid']</t>
   </si>
   <si>
     <t>success</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/add</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/less</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前置条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {'a': '^code', 'b':'^value'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'a': '${token}', 'b':'${heardes}'}</t>
   </si>
   <si>
     <t>{'code': 1000, 'msg': 'success', 'value': 1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'code': 1000, 'msg': 'success', 'value': -3}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"token":"'${token}','${heardes}'"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'a': '${token}', 'b':'${^name}'}</t>
+  </si>
+  <si>
+    <t>{'code': 1000, 'msg': 'success', 'value': {'pwd': '1234567', 'userid': 'liekai'}}</t>
+  </si>
+  <si>
+    <t>{'token':'${token}'}</t>
+  </si>
+  <si>
+    <t>/less/niubi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'a': '${token}', 'b':'${^ssn}'}</t>
+  </si>
+  <si>
+    <t>{'code': 1314, 'msg': 'success', 'value': '哈哈哈'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,18 +339,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -227,9 +557,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -237,27 +809,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -306,7 +922,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -339,26 +955,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -391,23 +990,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,188 +1131,321 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED18300-0AD6-B94A-90A5-BAA1069E06E6}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="29.1640625" customWidth="1"/>
-    <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="6" width="21.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="36.8333333333333" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="24.6666666666667" customWidth="1"/>
+    <col min="10" max="12" width="29.1666666666667" customWidth="1"/>
+    <col min="13" max="13" width="43" customWidth="1"/>
+    <col min="14" max="14" width="15.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="13.8333333333333" customWidth="1"/>
+    <col min="17" max="17" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="H1" t="s">
-        <v>22</v>
+    <row r="1" spans="10:10">
+      <c r="J1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="45" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="O3">
         <v>200</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
+      <c r="P3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4">
-        <v>1000</v>
-      </c>
-      <c r="K4">
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>200</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
+      <c r="P4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5">
+        <v>33</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5">
         <v>1000</v>
       </c>
-      <c r="K5">
+      <c r="O5">
         <v>200</v>
       </c>
-      <c r="L5" t="s">
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6">
+        <v>1000</v>
+      </c>
+      <c r="O6">
+        <v>200</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7">
+        <v>1000</v>
+      </c>
+      <c r="O7">
+        <v>200</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8">
+        <v>1314</v>
+      </c>
+      <c r="O8">
+        <v>200</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4:C5" r:id="rId1" display="http://127.0.0.1:8000/add" xr:uid="{D0AFC779-D529-B246-9427-C5D263F3A41F}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://127.0.0.1:8000/add" xr:uid="{86C6876E-4E52-184C-AC1C-166D29F69E86}"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://127.0.0.1:8000/add" xr:uid="{7A5F2842-46D0-F44F-A502-EA9DD0D54B92}"/>
+    <hyperlink ref="C5:C6" r:id="rId1" display="相减接口"/>
+    <hyperlink ref="C3" r:id="rId1" display="相加接口"/>
+    <hyperlink ref="C6" r:id="rId1" display="相减接口"/>
+    <hyperlink ref="C7" r:id="rId1" display="相减接口"/>
+    <hyperlink ref="C8" r:id="rId1" display="相减接口"/>
+    <hyperlink ref="C4" r:id="rId1" display="相加接口"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>